--- a/medicine/Enfance/Magali_Ségura/Magali_Ségura.xlsx
+++ b/medicine/Enfance/Magali_Ségura/Magali_Ségura.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Magali_S%C3%A9gura</t>
+          <t>Magali_Ségura</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Magali Ségura, née en 1972, est une femme française, auteur de fantasy et par ailleurs docteur en biologie[1]. Son premier texte publié, Contre la fatalité, a été nommé au Grand Prix de l'Imaginaire et récompensé par le prix Bob-Morane Imaginaire 2000.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Magali Ségura, née en 1972, est une femme française, auteur de fantasy et par ailleurs docteur en biologie. Son premier texte publié, Contre la fatalité, a été nommé au Grand Prix de l'Imaginaire et récompensé par le prix Bob-Morane Imaginaire 2000.
 En 2001, elle a publié sa première trilogie Leïlan : Les yeux de Leïlan, Une nuit sans lunes et Pour Éloïse. Caractérisée par une atmosphère ou se mêlent les codes de conte de fées et de cape et d'épées, cette œuvre rencontre du succès auprès des grands lecteurs aussi bien que les plus jeunes.
 Après une longue absence, Magali Ségura sort en 2012 une trilogie plus sombre mais tout aussi prenante, intitulée Éternité et composée des romans Le Prix d’Alaya, De sable et de sang et Des dunes sous le vent.
 </t>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Magali_S%C3%A9gura</t>
+          <t>Magali_Ségura</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,23 +527,130 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Cycle de Leïlan
-Les Yeux de Leïlan, Bragelonne, 2002
+          <t>Cycle de Leïlan</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Les Yeux de Leïlan, Bragelonne, 2002
 Pour Eloïse, Bragelonne, 2002
 Une nuit sans lune, Bragelonne, 2003
-Les trois tomes ont été publiés en intégrale en 2007, toujours chez Bragelonne en incluant la nouvelle À Chloé.
-Cycle Éternité
-Le Prix d'Alaya, Bragelonne, 2012
+Les trois tomes ont été publiés en intégrale en 2007, toujours chez Bragelonne en incluant la nouvelle À Chloé.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Magali_Ségura</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Magali_S%C3%A9gura</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Cycle Éternité</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le Prix d'Alaya, Bragelonne, 2012
 De sable et de sang, Bragelonne, 2013
 Des dunes sous le vent, Bragelonne, 2014
-Les trois tomes ont été publiés en intégrale en 2014, toujours chez Bragelonne
-Nouvelles
-Contre la fatalitéPubliée dans l'anthologie Légendaire, Mnémos - Prix Bob-Morane 2000 de la meilleure nouvelle
+Les trois tomes ont été publiés en intégrale en 2014, toujours chez Bragelonne</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Magali_Ségura</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Magali_S%C3%A9gura</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Nouvelles</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Contre la fatalitéPubliée dans l'anthologie Légendaire, Mnémos - Prix Bob-Morane 2000 de la meilleure nouvelle
 À ChloéPubliée dans l'anthologie Royaumes, Fleuve noir
-Esprits de nuitPubliée dans l'anthologie Fantasy 2006, Bragelonne
-Traductions
-To Chloe (À Chloé) : traduit dans le recueil Crossing the Boundaries à l'occasion du 67e Congrès mondial de la science-fiction[2]
-Die Rebellin von Leiland (Leïlan) :  traduit en allemand et édité par Bertelsmann dans la collection Blanvalet[3]</t>
+Esprits de nuitPubliée dans l'anthologie Fantasy 2006, Bragelonne</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Magali_Ségura</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Magali_S%C3%A9gura</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Traductions</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>To Chloe (À Chloé) : traduit dans le recueil Crossing the Boundaries à l'occasion du 67e Congrès mondial de la science-fiction
+Die Rebellin von Leiland (Leïlan) :  traduit en allemand et édité par Bertelsmann dans la collection Blanvalet</t>
         </is>
       </c>
     </row>
